--- a/medicine/Mort/Cimetière_militaire_polonais_du_Mont-Cassin/Cimetière_militaire_polonais_du_Mont-Cassin.xlsx
+++ b/medicine/Mort/Cimetière_militaire_polonais_du_Mont-Cassin/Cimetière_militaire_polonais_du_Mont-Cassin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_polonais_du_Mont-Cassin</t>
+          <t>Cimetière_militaire_polonais_du_Mont-Cassin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière militaire polonais du Mont-Cassin (en polonais polski cmentarz wojenny na Monte Cassino) est situé près de l'abbaye du Mont-Cassin, sur la commune de Cassino.
 C'est l'un des cinq cimetières de guerre du Cassinate, avec le cimetière allemand (dans le hameau de Caira), l'italien (à Mignano Monte Lungo), le français (à Venafro) et celui du Commonwealth (à Cassino), sans oublier les autres cimetières militaires polonais situés sur le territoire italien à Casamassima, Loreto et Bologne.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_polonais_du_Mont-Cassin</t>
+          <t>Cimetière_militaire_polonais_du_Mont-Cassin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est situé sur les pentes de ce qui a été désigné comme le point 445 et de l'abbaye sur le mont Cassin. La majorité des soldats enterrés ici appartiennent au 2e corps d'armée polonais du lieutenant-général Władysław Anders. Des soldats de ce corps ont attaqué à plusieurs reprises les défenseurs allemands à l'intérieur du monastère du Mont-Cassin en mai 1944. Le matin du 18 mai 1944, les forces polonaises sont finalement entrées dans les ruines de l'abbaye et ont hissé le drapeau polonais.
 Les premières inhumations dans le cimetière ont eu lieu en 1944 et le cimetière a été achevé en 1946 sur la base des plans de Wacław Hryniewicz et Jerzy Skolimowski. La consécration officielle du site a eu lieu le 1er septembre 1945.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_polonais_du_Mont-Cassin</t>
+          <t>Cimetière_militaire_polonais_du_Mont-Cassin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'entrée du cimetière, une inscription gravée au sol accueille les visiteurs. Elle est inspirée de l'épitaphe de Simonide, et se lit comme suit : 
   Przechodniu powiedz Polsce, żeśmy polegli wierni w jej służbie.  
